--- a/result/scenario3_default_WHERE_10fold.xlsx
+++ b/result/scenario3_default_WHERE_10fold.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>acc_train</t>
   </si>
@@ -113,16 +113,13 @@
     <t>0.375</t>
   </si>
   <si>
+    <t>0.9614</t>
+  </si>
+  <si>
+    <t>0.9207</t>
+  </si>
+  <si>
     <t>0.1</t>
-  </si>
-  <si>
-    <t>0.1538</t>
-  </si>
-  <si>
-    <t>0.9614</t>
-  </si>
-  <si>
-    <t>0.9207</t>
   </si>
   <si>
     <t>0.1333</t>
@@ -640,33 +637,33 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
